--- a/Simulation_Data/Coating_Properties.xlsx
+++ b/Simulation_Data/Coating_Properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\MATLAB\DNV matlab code\Simulation_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F753545-7E0E-44C0-825B-7920F2A9646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A404FA69-9DEB-42A1-9820-DA7DA89E4267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="600" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>RENER2024</t>
-  </si>
-  <si>
-    <t>RENER2024_Corrected</t>
-  </si>
-  <si>
-    <t>x3M_Case_2</t>
-  </si>
-  <si>
-    <t>x3M_Case_3</t>
-  </si>
-  <si>
     <t>Z_s</t>
   </si>
   <si>
@@ -52,6 +40,18 @@
   </si>
   <si>
     <t>h_c</t>
+  </si>
+  <si>
+    <t>AAP</t>
+  </si>
+  <si>
+    <t>AAP_Corrected</t>
+  </si>
+  <si>
+    <t>ThreeM</t>
+  </si>
+  <si>
+    <t>ORE</t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,21 +385,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3272880</v>
@@ -416,7 +416,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1872200</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>1628</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2098</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.6</v>

--- a/Simulation_Data/Coating_Properties.xlsx
+++ b/Simulation_Data/Coating_Properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\MATLAB\DNV matlab code\Simulation_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A404FA69-9DEB-42A1-9820-DA7DA89E4267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D868650-B795-4AE3-A996-D952DE5D0820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="600" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
